--- a/src/OpenStaxCollegeAlgebra/OpenStax_Sample_College_Algebra.xlsx
+++ b/src/OpenStaxCollegeAlgebra/OpenStax_Sample_College_Algebra.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>01/11/2025 13:52:11</t>
+          <t>14/11/2025 09:53:30</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
